--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc4_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc4_processed.xlsx
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07187462416107367</v>
+        <v>71.87462416107367</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01324503311258278</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
   </sheetData>
